--- a/biology/Botanique/Combe_Lochère/Combe_Lochère.xlsx
+++ b/biology/Botanique/Combe_Lochère/Combe_Lochère.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Combe_Loch%C3%A8re</t>
+          <t>Combe_Lochère</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La  Combe Lochère  est une vallée  située sur la commune de Beneuvre dans le département de la Côte-d'Or
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Combe_Loch%C3%A8re</t>
+          <t>Combe_Lochère</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Statut</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le site est classé Zone naturelle d'intérêt écologique, faunistique et floristique de type I, sous le numéro régional n°100230000[1]  
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le site est classé Zone naturelle d'intérêt écologique, faunistique et floristique de type I, sous le numéro régional n°100230000  
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Combe_Loch%C3%A8re</t>
+          <t>Combe_Lochère</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La Combe Lochère est une mosaïque de marais de pente tufeux et de landes à genévriers et épines noires. Elle est située au nord de Beneuvre.
 </t>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Combe_Loch%C3%A8re</t>
+          <t>Combe_Lochère</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,6 +590,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -581,7 +599,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Combe_Loch%C3%A8re</t>
+          <t>Combe_Lochère</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -599,9 +617,11 @@
           <t>Flore</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La flore comportes des espèces boréales rares et protégées : le Choin ferrugineux  (Schoenus ferrugineus ,  la Swertie pérenne  (  Swertia perennis ), l’Orchis incarnat et l’Épipactis des marais[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La flore comportes des espèces boréales rares et protégées : le Choin ferrugineux  (Schoenus ferrugineus ,  la Swertie pérenne  (  Swertia perennis ), l’Orchis incarnat et l’Épipactis des marais.
 </t>
         </is>
       </c>
